--- a/real_known_point_datasets.xlsx
+++ b/real_known_point_datasets.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Note</t>
   </si>
@@ -50,42 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">3721; 6180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nab-data/realKnownCause/cpu_utilization_asg_misconfiguration.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17002; 17814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nab-data/realKnownCause/ec2_request_latency_system_failure.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2081; 3395; 4023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nab-data/realKnownCause/machine_temperature_system_failure.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2409; 3986; 16340; 19515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nab-data/realKnownCause/nyc_taxi.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5942; 7183; 8526; 8834; 10080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nab-data/realKnownCause/rogue_agent_key_hold.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">716; 1287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nab-data/realKnownCause/rogue_agent_key_updown.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2375; 3009</t>
   </si>
 </sst>
 </file>
@@ -186,35 +150,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:F9"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="925" min="5" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="926" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="926" style="0" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,147 +221,21 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>18050</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>4032</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>22695</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>10320</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1882</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>5315</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>7267</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/real_known_point_datasets.xlsx
+++ b/real_known_point_datasets.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Note</t>
   </si>
@@ -43,13 +43,10 @@
     <t xml:space="preserve">discord length</t>
   </si>
   <si>
-    <t xml:space="preserve">nab-data/realKnownCause/ambient_temperature_system_failure.csv</t>
+    <t xml:space="preserve">227_UCR_Anomaly_mit14134longtermecg_11231_29000_29100.txt</t>
   </si>
   <si>
     <t xml:space="preserve">NAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3721; 6180</t>
   </si>
 </sst>
 </file>
@@ -165,15 +162,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="926" style="0" width="9.11"/>
   </cols>
@@ -206,19 +204,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>7267</v>
+        <v>59302</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>29000</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>362</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -230,8 +228,8 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/real_known_point_datasets.xlsx
+++ b/real_known_point_datasets.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Note</t>
   </si>
@@ -43,10 +43,22 @@
     <t xml:space="preserve">discord length</t>
   </si>
   <si>
-    <t xml:space="preserve">227_UCR_Anomaly_mit14134longtermecg_11231_29000_29100.txt</t>
+    <t xml:space="preserve">nab-data/realKnownCause/ambient_temperature_system_failure.csv</t>
   </si>
   <si>
     <t xml:space="preserve">NAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3721; 6180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qtdbsele0606.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chfdbchf15.txt</t>
   </si>
 </sst>
 </file>
@@ -136,13 +148,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -165,7 +181,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -173,6 +189,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="926" style="0" width="9.11"/>
   </cols>
   <sheetData>
@@ -204,30 +223,73 @@
         <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>59302</v>
+        <v>7267</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>29000</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>102</v>
+      <c r="F3" s="2" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/real_known_point_datasets.xlsx
+++ b/real_known_point_datasets.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Note</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">3721; 6180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qtdbsele0606.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chfdbchf15.txt</t>
   </si>
 </sst>
 </file>
@@ -148,17 +139,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -181,7 +168,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -189,7 +176,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="926" style="0" width="9.11"/>
@@ -238,46 +225,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>1150</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>200</v>
-      </c>
-    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
